--- a/Points/Point Table.xlsx
+++ b/Points/Point Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Python Project\Points\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shahi\Downloads\MartyrLeague\Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3549DA74-6655-4A5F-BD12-080F7DE5431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FED900-2CB4-42A0-A00D-D12E905E32E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{0705E6F1-C536-4533-BE55-A1376A734677}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0705E6F1-C536-4533-BE55-A1376A734677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sorted Table" sheetId="3" r:id="rId1"/>
@@ -24,28 +24,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -616,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04355F7B-9290-4753-A380-EE6495DBC6A9}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,449 +661,574 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="str" cm="1">
-        <f t="array" ref="B2:J15">_xlfn._xlws.SORT(Table!B2:J15,{9,8,6},-1)</f>
-        <v>Team 2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
-      <c r="J2" s="5">
-        <v>4</v>
+      <c r="B2" s="5" t="e" cm="1">
+        <f t="array" aca="1" ref="B2:J15" ca="1">_xlfn._xlws.SORT(Table!B2:J15,{9,8,6},-1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C2" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F2" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H2" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <v>Team 13</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>7</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7">
-        <v>3</v>
+      <c r="B3" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C3" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G3" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H3" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I3" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J3" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="str">
-        <v>Team 5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>6</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2</v>
-      </c>
-      <c r="J4" s="7">
-        <v>3</v>
+      <c r="B4" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C4" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G4" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H4" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I4" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J4" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="str">
-        <v>Team 10</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2</v>
-      </c>
-      <c r="J5" s="7">
-        <v>3</v>
+      <c r="B5" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C5" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H5" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I5" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J5" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="str">
-        <v>Team 14</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>3</v>
+      <c r="B6" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C6" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I6" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J6" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="str">
-        <v>Team 11</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
-        <v>3</v>
+      <c r="B7" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C7" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H7" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="str">
-        <v>Team 1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>4</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="7">
-        <v>3</v>
+      <c r="B8" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C8" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G8" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="str">
-        <v>Team 9</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
+      <c r="B9" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C9" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H9" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I9" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J9" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="str">
-        <v>Team 8</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
+      <c r="B10" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C10" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I10" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J10" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="str">
-        <v>Team 4</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>-1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
+      <c r="B11" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C11" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F11" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G11" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H11" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I11" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J11" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="str">
-        <v>Team 7</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
+      <c r="B12" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C12" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D12" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H12" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I12" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J12" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="str">
-        <v>Team 6</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>5</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>-2</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
+      <c r="B13" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C13" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D13" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E13" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F13" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G13" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H13" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I13" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J13" s="7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <v>Team 12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4</v>
-      </c>
-      <c r="H14" s="1">
-        <v>6</v>
-      </c>
-      <c r="I14" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
+      <c r="B14" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C14" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E14" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F14" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G14" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H14" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I14" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J14" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <v>Team 3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>4</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
+      <c r="B15" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C15" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D15" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E15" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F15" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G15" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H15" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I15" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J15" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -2199,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946487A8-0E53-4082-A9BD-FF022D86C1AC}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Points/Point Table.xlsx
+++ b/Points/Point Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shahi\Downloads\MartyrLeague\Points\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\MartyrLeague\Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FED900-2CB4-42A0-A00D-D12E905E32E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE4ABE7-4B0C-4B3F-A4C2-F9DD655BCFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0705E6F1-C536-4533-BE55-A1376A734677}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{0705E6F1-C536-4533-BE55-A1376A734677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sorted Table" sheetId="3" r:id="rId1"/>
@@ -24,19 +24,28 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -51,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="52">
   <si>
     <t>Round</t>
   </si>
@@ -155,9 +164,6 @@
     <t>Match Link</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -174,6 +180,42 @@
   </si>
   <si>
     <t>Away Team</t>
+  </si>
+  <si>
+    <t>Shrawan  19</t>
+  </si>
+  <si>
+    <t>Shrawan  20</t>
+  </si>
+  <si>
+    <t>Shrawan  21</t>
+  </si>
+  <si>
+    <t>Shrawan  23</t>
+  </si>
+  <si>
+    <t>Shrawan  24</t>
+  </si>
+  <si>
+    <t>Shrawan  25</t>
+  </si>
+  <si>
+    <t>Shrawan  26</t>
+  </si>
+  <si>
+    <t>Shrawan  27</t>
+  </si>
+  <si>
+    <t>Shrawan  28</t>
+  </si>
+  <si>
+    <t>Shrawan  29</t>
+  </si>
+  <si>
+    <t>Shrawan  30</t>
+  </si>
+  <si>
+    <t>Shrawan  31</t>
   </si>
 </sst>
 </file>
@@ -277,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -290,6 +332,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -607,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04355F7B-9290-4753-A380-EE6495DBC6A9}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,574 +705,449 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="B2:J15" ca="1">_xlfn._xlws.SORT(Table!B2:J15,{9,8,6},-1)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C2" s="5" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D2" s="5" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E2" s="5" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F2" s="5" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="5" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H2" s="5" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I2" s="5" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="5" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B2" s="5" t="str" cm="1">
+        <f t="array" ref="B2:J15">_xlfn._xlws.SORT(Table!B2:J15,{9,8,6},-1)</f>
+        <v>Team 5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C3" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D3" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E3" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F3" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G3" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H3" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I3" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J3" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B3" s="7" t="str">
+        <v>Team 9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C4" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D4" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F4" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G4" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H4" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I4" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J4" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B4" s="7" t="str">
+        <v>Team 14</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C5" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D5" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E5" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F5" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G5" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H5" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I5" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J5" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B5" s="7" t="str">
+        <v>Team 13</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C6" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D6" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F6" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I6" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J6" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B6" s="7" t="str">
+        <v>Team 3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6</v>
+      </c>
+      <c r="H6" s="7">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C7" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F7" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G7" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H7" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I7" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B7" s="7" t="str">
+        <v>Team 2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C8" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F8" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G8" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I8" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B8" s="7" t="str">
+        <v>Team 10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C9" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D9" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E9" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F9" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G9" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H9" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I9" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J9" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B9" s="7" t="str">
+        <v>Team 11</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C10" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D10" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E10" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F10" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G10" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H10" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I10" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J10" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B10" s="7" t="str">
+        <v>Team 1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C11" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D11" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E11" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F11" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G11" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H11" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I11" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J11" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B11" s="7" t="str">
+        <v>Team 8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C12" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D12" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E12" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F12" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G12" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H12" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I12" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J12" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B12" s="7" t="str">
+        <v>Team 7</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C13" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D13" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E13" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F13" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G13" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H13" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I13" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J13" s="7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B13" s="7" t="str">
+        <v>Team 12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-2</v>
+      </c>
+      <c r="J13" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C14" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D14" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E14" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F14" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G14" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H14" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I14" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J14" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B14" s="1" t="str">
+        <v>Team 4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C15" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D15" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E15" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F15" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G15" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H15" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I15" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J15" s="1" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="B15" s="1" t="str">
+        <v>Team 6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1241,7 +1160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F897DEC3-86A6-4E7D-909E-695594828D60}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -1310,7 +1229,7 @@
       </c>
       <c r="C2" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B2,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B2,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B2,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B2,Matches!$G$2:$G$22,"3"),0)</f>
@@ -1318,7 +1237,7 @@
       </c>
       <c r="E2" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B2,Matches!$F$2:$F$22,"1")+COUNTIFS(Matches!$E$2:$E$22,Table!$B2,Matches!$G$2:$G$22,"1"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
         <f>C2-(D2+E2)</f>
@@ -1326,11 +1245,11 @@
       </c>
       <c r="G2" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B2,Matches!$C$2:$C$22)+SUMIF(Matches!$E$2:$E$22,Table!$B2,Matches!$D$2:$D$22)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B2,Matches!$D$2:$D$22)+SUMIF(Matches!$E$2:$E$22,Table!$B2,Matches!$C$2:$C$22)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" ref="I2:I15" si="0">G2-H2</f>
@@ -1338,7 +1257,7 @@
       </c>
       <c r="J2" s="3">
         <f t="shared" ref="J2:J15" si="1">D2*3+E2*1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1350,7 +1269,7 @@
       </c>
       <c r="C3" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B3,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B3,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B3,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B3,Matches!$G$2:$G$22,"3"),0)</f>
@@ -1358,7 +1277,7 @@
       </c>
       <c r="E3" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B3,Matches!$F$2:$F$22,"1")+COUNTIFS(Matches!$E$2:$E$22,Table!$B3,Matches!$G$2:$G$22,"1"),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F15" si="2">C3-(D3+E3)</f>
@@ -1378,7 +1297,7 @@
       </c>
       <c r="J3" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1390,11 +1309,11 @@
       </c>
       <c r="C4" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B4,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B4,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B4,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B4,Matches!$G$2:$G$22,"3"),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B4,Matches!$F$2:$F$22,"1")+COUNTIFS(Matches!$E$2:$E$22,Table!$B4,Matches!$G$2:$G$22,"1"),0)</f>
@@ -1406,19 +1325,19 @@
       </c>
       <c r="G4" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B4,Matches!$C$2:$C$22)+SUMIF(Matches!$E$2:$E$22,Table!$B4,Matches!$D$2:$D$22)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B4,Matches!$D$2:$D$22)+SUMIF(Matches!$E$2:$E$22,Table!$B4,Matches!$C$2:$C$22)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1430,7 +1349,7 @@
       </c>
       <c r="C5" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B5,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B5,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B5,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B5,Matches!$G$2:$G$22,"3"),0)</f>
@@ -1442,19 +1361,19 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B5,Matches!$C$2:$C$22)+SUMIF(Matches!$E$2:$E$22,Table!$B5,Matches!$D$2:$D$22)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B5,Matches!$D$2:$D$22)+SUMIF(Matches!$E$2:$E$22,Table!$B5,Matches!$C$2:$C$22)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
@@ -1470,15 +1389,15 @@
       </c>
       <c r="C6" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B6,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B6,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B6,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B6,Matches!$G$2:$G$22,"3"),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B6,Matches!$F$2:$F$22,"1")+COUNTIFS(Matches!$E$2:$E$22,Table!$B6,Matches!$G$2:$G$22,"1"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="2"/>
@@ -1486,19 +1405,19 @@
       </c>
       <c r="G6" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B6,Matches!$C$2:$C$22)+SUMIF(Matches!$E$2:$E$22,Table!$B6,Matches!$D$2:$D$22)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B6,Matches!$D$2:$D$22)+SUMIF(Matches!$E$2:$E$22,Table!$B6,Matches!$C$2:$C$22)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1510,7 +1429,7 @@
       </c>
       <c r="C7" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B7,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B7,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B7,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B7,Matches!$G$2:$G$22,"3"),0)</f>
@@ -1522,19 +1441,19 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B7,Matches!$C$2:$C$22)+SUMIF(Matches!$E$2:$E$22,Table!$B7,Matches!$D$2:$D$22)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H7" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B7,Matches!$D$2:$D$22)+SUMIF(Matches!$E$2:$E$22,Table!$B7,Matches!$C$2:$C$22)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
@@ -1550,11 +1469,11 @@
       </c>
       <c r="C8" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B8,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B8,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B8,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B8,Matches!$G$2:$G$22,"3"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B8,Matches!$F$2:$F$22,"1")+COUNTIFS(Matches!$E$2:$E$22,Table!$B8,Matches!$G$2:$G$22,"1"),0)</f>
@@ -1562,15 +1481,15 @@
       </c>
       <c r="F8" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B8,Matches!$C$2:$C$22)+SUMIF(Matches!$E$2:$E$22,Table!$B8,Matches!$D$2:$D$22)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H8" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B8,Matches!$D$2:$D$22)+SUMIF(Matches!$E$2:$E$22,Table!$B8,Matches!$C$2:$C$22)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
@@ -1578,7 +1497,7 @@
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1590,11 +1509,11 @@
       </c>
       <c r="C9" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B9,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B9,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B9,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B9,Matches!$G$2:$G$22,"3"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B9,Matches!$F$2:$F$22,"1")+COUNTIFS(Matches!$E$2:$E$22,Table!$B9,Matches!$G$2:$G$22,"1"),0)</f>
@@ -1602,15 +1521,15 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B9,Matches!$C$2:$C$22)+SUMIF(Matches!$E$2:$E$22,Table!$B9,Matches!$D$2:$D$22)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H9" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B9,Matches!$D$2:$D$22)+SUMIF(Matches!$E$2:$E$22,Table!$B9,Matches!$C$2:$C$22)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
@@ -1618,7 +1537,7 @@
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1630,7 +1549,7 @@
       </c>
       <c r="C10" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B10,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B10,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B10,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B10,Matches!$G$2:$G$22,"3"),0)</f>
@@ -1638,27 +1557,27 @@
       </c>
       <c r="E10" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B10,Matches!$F$2:$F$22,"1")+COUNTIFS(Matches!$E$2:$E$22,Table!$B10,Matches!$G$2:$G$22,"1"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B10,Matches!$C$2:$C$22)+SUMIF(Matches!$E$2:$E$22,Table!$B10,Matches!$D$2:$D$22)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B10,Matches!$D$2:$D$22)+SUMIF(Matches!$E$2:$E$22,Table!$B10,Matches!$C$2:$C$22)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1670,11 +1589,11 @@
       </c>
       <c r="C11" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B11,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B11,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B11,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B11,Matches!$G$2:$G$22,"3"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B11,Matches!$F$2:$F$22,"1")+COUNTIFS(Matches!$E$2:$E$22,Table!$B11,Matches!$G$2:$G$22,"1"),0)</f>
@@ -1682,15 +1601,15 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B11,Matches!$C$2:$C$22)+SUMIF(Matches!$E$2:$E$22,Table!$B11,Matches!$D$2:$D$22)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H11" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B11,Matches!$D$2:$D$22)+SUMIF(Matches!$E$2:$E$22,Table!$B11,Matches!$C$2:$C$22)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
@@ -1698,7 +1617,7 @@
       </c>
       <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1710,15 +1629,15 @@
       </c>
       <c r="C12" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B12,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B12,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B12,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B12,Matches!$G$2:$G$22,"3"),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B12,Matches!$F$2:$F$22,"1")+COUNTIFS(Matches!$E$2:$E$22,Table!$B12,Matches!$G$2:$G$22,"1"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="2"/>
@@ -1726,19 +1645,19 @@
       </c>
       <c r="G12" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B12,Matches!$C$2:$C$22)+SUMIF(Matches!$E$2:$E$22,Table!$B12,Matches!$D$2:$D$22)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B12,Matches!$D$2:$D$22)+SUMIF(Matches!$E$2:$E$22,Table!$B12,Matches!$C$2:$C$22)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1750,11 +1669,11 @@
       </c>
       <c r="C13" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B13,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B13,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B13,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B13,Matches!$G$2:$G$22,"3"),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B13,Matches!$F$2:$F$22,"1")+COUNTIFS(Matches!$E$2:$E$22,Table!$B13,Matches!$G$2:$G$22,"1"),0)</f>
@@ -1766,19 +1685,19 @@
       </c>
       <c r="G13" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B13,Matches!$C$2:$C$22)+SUMIF(Matches!$E$2:$E$22,Table!$B13,Matches!$D$2:$D$22)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H13" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B13,Matches!$D$2:$D$22)+SUMIF(Matches!$E$2:$E$22,Table!$B13,Matches!$C$2:$C$22)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1790,7 +1709,7 @@
       </c>
       <c r="C14" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B14,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B14,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B14,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B14,Matches!$G$2:$G$22,"3"),0)</f>
@@ -1798,27 +1717,27 @@
       </c>
       <c r="E14" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B14,Matches!$F$2:$F$22,"1")+COUNTIFS(Matches!$E$2:$E$22,Table!$B14,Matches!$G$2:$G$22,"1"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B14,Matches!$C$2:$C$22)+SUMIF(Matches!$E$2:$E$22,Table!$B14,Matches!$D$2:$D$22)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B14,Matches!$D$2:$D$22)+SUMIF(Matches!$E$2:$E$22,Table!$B14,Matches!$C$2:$C$22)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1830,11 +1749,11 @@
       </c>
       <c r="C15" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B15,Matches!$C$2:$C$22,"&gt;=0")+COUNTIFS(Matches!$E$2:$E$22,Table!$B15,Matches!$D$2:$D$22,"&gt;=0"),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B15,Matches!$F$2:$F$22,"3")+COUNTIFS(Matches!$E$2:$E$22,Table!$B15,Matches!$G$2:$G$22,"3"),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
         <f>IFERROR(COUNTIFS(Matches!$B$2:$B$22,Table!$B15,Matches!$F$2:$F$22,"1")+COUNTIFS(Matches!$E$2:$E$22,Table!$B15,Matches!$G$2:$G$22,"1"),0)</f>
@@ -1842,15 +1761,15 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B15,Matches!$C$2:$C$22)+SUMIF(Matches!$E$2:$E$22,Table!$B15,Matches!$D$2:$D$22)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3">
         <f>SUMIF(Matches!$B$2:$B$22,Table!$B15,Matches!$D$2:$D$22)+SUMIF(Matches!$E$2:$E$22,Table!$B15,Matches!$C$2:$C$22)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
@@ -1858,7 +1777,7 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1876,14 +1795,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74706A7D-3A36-4014-BD96-820CB10FA71F}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
@@ -1915,13 +1832,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>'Matches Date'!A2</f>
-        <v>6</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'Matches Date'!B2</f>
-        <v>TBD</v>
+      <c r="A2" s="10" t="str">
+        <f>Matches!H2</f>
+        <v>Shrawan  19</v>
+      </c>
+      <c r="B2" s="11">
+        <f>Matches!I2</f>
+        <v>0.5</v>
       </c>
       <c r="C2">
         <f>'Matches Date'!C2</f>
@@ -1939,17 +1856,17 @@
         <v>Team 8</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>'Matches Date'!A3</f>
-        <v>TBD</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'Matches Date'!B3</f>
-        <v>TBD</v>
+      <c r="A3" s="10" t="str">
+        <f>Matches!H3</f>
+        <v>Shrawan  19</v>
+      </c>
+      <c r="B3" s="11">
+        <f>Matches!I3</f>
+        <v>0.625</v>
       </c>
       <c r="C3">
         <f>'Matches Date'!C3</f>
@@ -1967,17 +1884,17 @@
         <v>Team 9</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>'Matches Date'!A4</f>
-        <v>TBD</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'Matches Date'!B4</f>
-        <v>TBD</v>
+      <c r="A4" s="10" t="str">
+        <f>Matches!H4</f>
+        <v>Shrawan  20</v>
+      </c>
+      <c r="B4" s="11">
+        <f>Matches!I4</f>
+        <v>0.5</v>
       </c>
       <c r="C4">
         <f>'Matches Date'!C4</f>
@@ -1995,17 +1912,17 @@
         <v>Team 10</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>'Matches Date'!A5</f>
-        <v>TBD</v>
-      </c>
-      <c r="B5" t="str">
-        <f>'Matches Date'!B5</f>
-        <v>TBD</v>
+      <c r="A5" s="10" t="str">
+        <f>Matches!H5</f>
+        <v>Shrawan  20</v>
+      </c>
+      <c r="B5" s="11">
+        <f>Matches!I5</f>
+        <v>0.625</v>
       </c>
       <c r="C5">
         <f>'Matches Date'!C5</f>
@@ -2023,17 +1940,17 @@
         <v>Team 11</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>'Matches Date'!A6</f>
-        <v>TBD</v>
-      </c>
-      <c r="B6" t="str">
-        <f>'Matches Date'!B6</f>
-        <v>TBD</v>
+      <c r="A6" s="10" t="str">
+        <f>Matches!H6</f>
+        <v>Shrawan  21</v>
+      </c>
+      <c r="B6" s="11">
+        <f>Matches!I6</f>
+        <v>0.5</v>
       </c>
       <c r="C6">
         <f>'Matches Date'!C6</f>
@@ -2051,17 +1968,17 @@
         <v>Team 12</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>'Matches Date'!A7</f>
-        <v>TBD</v>
-      </c>
-      <c r="B7" t="str">
-        <f>'Matches Date'!B7</f>
-        <v>TBD</v>
+      <c r="A7" s="10" t="str">
+        <f>Matches!H7</f>
+        <v>Shrawan  21</v>
+      </c>
+      <c r="B7" s="11">
+        <f>Matches!I7</f>
+        <v>0.625</v>
       </c>
       <c r="C7">
         <f>'Matches Date'!C7</f>
@@ -2079,17 +1996,17 @@
         <v>Team 13</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>'Matches Date'!A8</f>
-        <v>TBD</v>
-      </c>
-      <c r="B8" t="str">
-        <f>'Matches Date'!B8</f>
-        <v>TBD</v>
+      <c r="A8" s="10" t="str">
+        <f>Matches!H8</f>
+        <v>Shrawan  21</v>
+      </c>
+      <c r="B8" s="11">
+        <f>Matches!I8</f>
+        <v>0.75</v>
       </c>
       <c r="C8">
         <f>'Matches Date'!C8</f>
@@ -2107,17 +2024,17 @@
         <v>Team 14</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>'Matches Date'!A9</f>
-        <v>TBD</v>
-      </c>
-      <c r="B9" t="str">
-        <f>'Matches Date'!B9</f>
-        <v>TBD</v>
+      <c r="A9" s="10" t="str">
+        <f>Matches!H9</f>
+        <v>Shrawan  23</v>
+      </c>
+      <c r="B9" s="11">
+        <f>Matches!I9</f>
+        <v>0.625</v>
       </c>
       <c r="C9">
         <f>'Matches Date'!C9</f>
@@ -2135,17 +2052,17 @@
         <v>Team 1</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>'Matches Date'!A10</f>
-        <v>TBD</v>
-      </c>
-      <c r="B10" t="str">
-        <f>'Matches Date'!B10</f>
-        <v>TBD</v>
+      <c r="A10" s="10" t="str">
+        <f>Matches!H10</f>
+        <v>Shrawan  23</v>
+      </c>
+      <c r="B10" s="11">
+        <f>Matches!I10</f>
+        <v>0.5</v>
       </c>
       <c r="C10">
         <f>'Matches Date'!C10</f>
@@ -2163,17 +2080,17 @@
         <v>Team 3</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>'Matches Date'!A11</f>
-        <v>TBD</v>
-      </c>
-      <c r="B11" t="str">
-        <f>'Matches Date'!B11</f>
-        <v>TBD</v>
+      <c r="A11" s="10" t="str">
+        <f>Matches!H11</f>
+        <v>Shrawan  24</v>
+      </c>
+      <c r="B11" s="11">
+        <f>Matches!I11</f>
+        <v>0.625</v>
       </c>
       <c r="C11">
         <f>'Matches Date'!C11</f>
@@ -2191,17 +2108,17 @@
         <v>Team 5</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>'Matches Date'!A12</f>
-        <v>TBD</v>
-      </c>
-      <c r="B12" t="str">
-        <f>'Matches Date'!B12</f>
-        <v>TBD</v>
+      <c r="A12" s="10" t="str">
+        <f>Matches!H12</f>
+        <v>Shrawan  24</v>
+      </c>
+      <c r="B12" s="11">
+        <f>Matches!I12</f>
+        <v>0.5</v>
       </c>
       <c r="C12">
         <f>'Matches Date'!C12</f>
@@ -2219,17 +2136,17 @@
         <v>Team 7</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>'Matches Date'!A13</f>
-        <v>TBD</v>
-      </c>
-      <c r="B13" t="str">
-        <f>'Matches Date'!B13</f>
-        <v>TBD</v>
+      <c r="A13" s="10" t="str">
+        <f>Matches!H13</f>
+        <v>Shrawan  25</v>
+      </c>
+      <c r="B13" s="11">
+        <f>Matches!I13</f>
+        <v>0.625</v>
       </c>
       <c r="C13">
         <f>'Matches Date'!C13</f>
@@ -2247,17 +2164,17 @@
         <v>Team 9</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>'Matches Date'!A14</f>
-        <v>TBD</v>
-      </c>
-      <c r="B14" t="str">
-        <f>'Matches Date'!B14</f>
-        <v>TBD</v>
+      <c r="A14" s="10" t="str">
+        <f>Matches!H14</f>
+        <v>Shrawan  25</v>
+      </c>
+      <c r="B14" s="11">
+        <f>Matches!I14</f>
+        <v>0.5</v>
       </c>
       <c r="C14">
         <f>'Matches Date'!C14</f>
@@ -2275,17 +2192,17 @@
         <v>Team 11</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>'Matches Date'!A15</f>
-        <v>TBD</v>
-      </c>
-      <c r="B15" t="str">
-        <f>'Matches Date'!B15</f>
-        <v>TBD</v>
+      <c r="A15" s="10" t="str">
+        <f>Matches!H15</f>
+        <v>Shrawan  26</v>
+      </c>
+      <c r="B15" s="11">
+        <f>Matches!I15</f>
+        <v>0.625</v>
       </c>
       <c r="C15">
         <f>'Matches Date'!C15</f>
@@ -2303,7 +2220,7 @@
         <v>Team 13</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2315,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946487A8-0E53-4082-A9BD-FF022D86C1AC}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,6 +2244,7 @@
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2382,11 +2300,11 @@
         <f>IF(ISBLANK(C2),"",IF(C2&lt;D2,3,IF(C2=D2,1,0)))</f>
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
+      <c r="H2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2413,11 +2331,11 @@
         <f t="shared" ref="G3:G22" si="1">IF(ISBLANK(C3),"",IF(C3&lt;D3,3,IF(C3=D3,1,0)))</f>
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
+      <c r="H3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.625</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2444,11 +2362,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
+      <c r="H4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2475,11 +2393,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
+      <c r="H5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.625</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2506,11 +2424,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
+      <c r="H6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2537,11 +2455,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
+      <c r="H7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.625</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2568,11 +2486,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
+      <c r="H8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2599,11 +2517,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
+      <c r="H9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.625</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2613,22 +2531,28 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G10" t="str">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2638,22 +2562,28 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G11" t="str">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.625</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2663,22 +2593,28 @@
       <c r="B12" t="s">
         <v>13</v>
       </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G12" t="str">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2688,22 +2624,28 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G13" t="str">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.625</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2713,22 +2655,28 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G14" t="str">
+        <v>3</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2738,22 +2686,28 @@
       <c r="B15" t="s">
         <v>19</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G15" t="str">
+        <v>3</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.625</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2763,22 +2717,28 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16">
         <f>IF(ISBLANK(C16),"",IF(C16&gt;D16,3,IF(C16=D16,1,0)))</f>
-        <v/>
-      </c>
-      <c r="G16" t="str">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <f>IF(ISBLANK(C16),"",IF(C16&lt;D16,3,IF(C16=D16,1,0)))</f>
-        <v/>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2788,22 +2748,28 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G17" t="str">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.625</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2813,22 +2779,28 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G18" t="str">
+        <v>3</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.625</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2838,22 +2810,28 @@
       <c r="B19" t="s">
         <v>9</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G19" t="str">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2863,22 +2841,28 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G20" t="str">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.625</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2888,22 +2872,28 @@
       <c r="B21" t="s">
         <v>11</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
       <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G21" t="str">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2913,22 +2903,28 @@
       <c r="B22" t="s">
         <v>12</v>
       </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G22" t="str">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>
@@ -2939,16 +2935,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223CF6BA-ED14-482F-9AF1-B8064D46645C}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -2968,29 +2964,29 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>Matches!$H2</f>
-        <v>6</v>
-      </c>
-      <c r="B2" t="str">
-        <f>Matches!$I2</f>
-        <v>TBD</v>
+      <c r="A2" s="11">
+        <f>Matches!I2</f>
+        <v>0.5</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f>Matches!H2</f>
+        <v>Shrawan  19</v>
       </c>
       <c r="C2" s="9">
         <f>Matches!$A2</f>
@@ -3017,13 +3013,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>Matches!$H3</f>
-        <v>TBD</v>
-      </c>
-      <c r="B3" t="str">
-        <f>Matches!$I3</f>
-        <v>TBD</v>
+      <c r="A3" s="11">
+        <f>Matches!I3</f>
+        <v>0.625</v>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f>Matches!H3</f>
+        <v>Shrawan  19</v>
       </c>
       <c r="C3" s="9">
         <f>Matches!$A3</f>
@@ -3050,13 +3046,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>Matches!$H4</f>
-        <v>TBD</v>
-      </c>
-      <c r="B4" t="str">
-        <f>Matches!$I4</f>
-        <v>TBD</v>
+      <c r="A4" s="11">
+        <f>Matches!I4</f>
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="10" t="str">
+        <f>Matches!H4</f>
+        <v>Shrawan  20</v>
       </c>
       <c r="C4" s="9">
         <f>Matches!$A4</f>
@@ -3083,13 +3079,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>Matches!$H5</f>
-        <v>TBD</v>
-      </c>
-      <c r="B5" t="str">
-        <f>Matches!$I5</f>
-        <v>TBD</v>
+      <c r="A5" s="11">
+        <f>Matches!I5</f>
+        <v>0.625</v>
+      </c>
+      <c r="B5" s="10" t="str">
+        <f>Matches!H5</f>
+        <v>Shrawan  20</v>
       </c>
       <c r="C5" s="9">
         <f>Matches!$A5</f>
@@ -3116,13 +3112,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>Matches!$H6</f>
-        <v>TBD</v>
-      </c>
-      <c r="B6" t="str">
-        <f>Matches!$I6</f>
-        <v>TBD</v>
+      <c r="A6" s="11">
+        <f>Matches!I6</f>
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10" t="str">
+        <f>Matches!H6</f>
+        <v>Shrawan  21</v>
       </c>
       <c r="C6" s="9">
         <f>Matches!$A6</f>
@@ -3149,13 +3145,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>Matches!$H7</f>
-        <v>TBD</v>
-      </c>
-      <c r="B7" t="str">
-        <f>Matches!$I7</f>
-        <v>TBD</v>
+      <c r="A7" s="11">
+        <f>Matches!I7</f>
+        <v>0.625</v>
+      </c>
+      <c r="B7" s="10" t="str">
+        <f>Matches!H7</f>
+        <v>Shrawan  21</v>
       </c>
       <c r="C7" s="9">
         <f>Matches!$A7</f>
@@ -3182,13 +3178,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>Matches!$H8</f>
-        <v>TBD</v>
-      </c>
-      <c r="B8" t="str">
-        <f>Matches!$I8</f>
-        <v>TBD</v>
+      <c r="A8" s="11">
+        <f>Matches!I8</f>
+        <v>0.75</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f>Matches!H8</f>
+        <v>Shrawan  21</v>
       </c>
       <c r="C8" s="9">
         <f>Matches!$A8</f>
@@ -3215,13 +3211,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>Matches!$H9</f>
-        <v>TBD</v>
-      </c>
-      <c r="B9" t="str">
-        <f>Matches!$I9</f>
-        <v>TBD</v>
+      <c r="A9" s="11">
+        <f>Matches!I9</f>
+        <v>0.625</v>
+      </c>
+      <c r="B9" s="10" t="str">
+        <f>Matches!H9</f>
+        <v>Shrawan  23</v>
       </c>
       <c r="C9" s="9">
         <f>Matches!$A9</f>
@@ -3248,13 +3244,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>Matches!$H10</f>
-        <v>TBD</v>
-      </c>
-      <c r="B10" t="str">
-        <f>Matches!$I10</f>
-        <v>TBD</v>
+      <c r="A10" s="11">
+        <f>Matches!I10</f>
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="10" t="str">
+        <f>Matches!H10</f>
+        <v>Shrawan  23</v>
       </c>
       <c r="C10" s="9">
         <f>Matches!$A10</f>
@@ -3266,14 +3262,14 @@
       </c>
       <c r="E10">
         <f>Matches!$C10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
       </c>
       <c r="G10">
         <f>Matches!$D10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="str">
         <f>Matches!$E10</f>
@@ -3281,13 +3277,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>Matches!$H11</f>
-        <v>TBD</v>
-      </c>
-      <c r="B11" t="str">
-        <f>Matches!$I11</f>
-        <v>TBD</v>
+      <c r="A11" s="11">
+        <f>Matches!I11</f>
+        <v>0.625</v>
+      </c>
+      <c r="B11" s="10" t="str">
+        <f>Matches!H11</f>
+        <v>Shrawan  24</v>
       </c>
       <c r="C11" s="9">
         <f>Matches!$A11</f>
@@ -3299,14 +3295,14 @@
       </c>
       <c r="E11">
         <f>Matches!$C11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
       </c>
       <c r="G11">
         <f>Matches!$D11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" t="str">
         <f>Matches!$E11</f>
@@ -3314,13 +3310,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>Matches!$H12</f>
-        <v>TBD</v>
-      </c>
-      <c r="B12" t="str">
-        <f>Matches!$I12</f>
-        <v>TBD</v>
+      <c r="A12" s="11">
+        <f>Matches!I12</f>
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="10" t="str">
+        <f>Matches!H12</f>
+        <v>Shrawan  24</v>
       </c>
       <c r="C12" s="9">
         <f>Matches!$A12</f>
@@ -3332,14 +3328,14 @@
       </c>
       <c r="E12">
         <f>Matches!$C12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
       </c>
       <c r="G12">
         <f>Matches!$D12</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" t="str">
         <f>Matches!$E12</f>
@@ -3347,13 +3343,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>Matches!$H13</f>
-        <v>TBD</v>
-      </c>
-      <c r="B13" t="str">
-        <f>Matches!$I13</f>
-        <v>TBD</v>
+      <c r="A13" s="11">
+        <f>Matches!I13</f>
+        <v>0.625</v>
+      </c>
+      <c r="B13" s="10" t="str">
+        <f>Matches!H13</f>
+        <v>Shrawan  25</v>
       </c>
       <c r="C13" s="9">
         <f>Matches!$A13</f>
@@ -3365,14 +3361,14 @@
       </c>
       <c r="E13">
         <f>Matches!$C13</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
       </c>
       <c r="G13">
         <f>Matches!$D13</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" t="str">
         <f>Matches!$E13</f>
@@ -3380,13 +3376,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>Matches!$H14</f>
-        <v>TBD</v>
-      </c>
-      <c r="B14" t="str">
-        <f>Matches!$I14</f>
-        <v>TBD</v>
+      <c r="A14" s="11">
+        <f>Matches!I14</f>
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="10" t="str">
+        <f>Matches!H14</f>
+        <v>Shrawan  25</v>
       </c>
       <c r="C14" s="9">
         <f>Matches!$A14</f>
@@ -3398,14 +3394,14 @@
       </c>
       <c r="E14">
         <f>Matches!$C14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
       </c>
       <c r="G14">
         <f>Matches!$D14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="str">
         <f>Matches!$E14</f>
@@ -3413,13 +3409,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>Matches!$H15</f>
-        <v>TBD</v>
-      </c>
-      <c r="B15" t="str">
-        <f>Matches!$I15</f>
-        <v>TBD</v>
+      <c r="A15" s="11">
+        <f>Matches!I15</f>
+        <v>0.625</v>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f>Matches!H15</f>
+        <v>Shrawan  26</v>
       </c>
       <c r="C15" s="9">
         <f>Matches!$A15</f>
@@ -3431,18 +3427,249 @@
       </c>
       <c r="E15">
         <f>Matches!$C15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
       </c>
       <c r="G15">
         <f>Matches!$D15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="str">
         <f>Matches!$E15</f>
         <v>Team 13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <f>Matches!I16</f>
+        <v>0.75</v>
+      </c>
+      <c r="B16" s="10" t="str">
+        <f>Matches!H16</f>
+        <v>Shrawan  26</v>
+      </c>
+      <c r="C16" s="9">
+        <f>Matches!$A16</f>
+        <v>3</v>
+      </c>
+      <c r="D16" t="str">
+        <f>Matches!$B16</f>
+        <v>Team 1</v>
+      </c>
+      <c r="E16">
+        <f>Matches!$C16</f>
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <f>Matches!$D16</f>
+        <v>2</v>
+      </c>
+      <c r="H16" t="str">
+        <f>Matches!$E16</f>
+        <v>Team 10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <f>Matches!I17</f>
+        <v>0.625</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f>Matches!H17</f>
+        <v>Shrawan  27</v>
+      </c>
+      <c r="C17" s="9">
+        <f>Matches!$A17</f>
+        <v>3</v>
+      </c>
+      <c r="D17" t="str">
+        <f>Matches!$B17</f>
+        <v>Team 2</v>
+      </c>
+      <c r="E17">
+        <f>Matches!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <f>Matches!$D17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" t="str">
+        <f>Matches!$E17</f>
+        <v>Team 11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <f>Matches!I18</f>
+        <v>0.625</v>
+      </c>
+      <c r="B18" s="10" t="str">
+        <f>Matches!H18</f>
+        <v>Shrawan  28</v>
+      </c>
+      <c r="C18" s="9">
+        <f>Matches!$A18</f>
+        <v>3</v>
+      </c>
+      <c r="D18" t="str">
+        <f>Matches!$B18</f>
+        <v>Team 3</v>
+      </c>
+      <c r="E18">
+        <f>Matches!$C18</f>
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <f>Matches!$D18</f>
+        <v>1</v>
+      </c>
+      <c r="H18" t="str">
+        <f>Matches!$E18</f>
+        <v>Team 12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <f>Matches!I19</f>
+        <v>0.5</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f>Matches!H19</f>
+        <v>Shrawan  28</v>
+      </c>
+      <c r="C19" s="9">
+        <f>Matches!$A19</f>
+        <v>3</v>
+      </c>
+      <c r="D19" t="str">
+        <f>Matches!$B19</f>
+        <v>Team 4</v>
+      </c>
+      <c r="E19">
+        <f>Matches!$C19</f>
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <f>Matches!$D19</f>
+        <v>2</v>
+      </c>
+      <c r="H19" t="str">
+        <f>Matches!$E19</f>
+        <v>Team 13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <f>Matches!I20</f>
+        <v>0.625</v>
+      </c>
+      <c r="B20" s="10" t="str">
+        <f>Matches!H20</f>
+        <v>Shrawan  29</v>
+      </c>
+      <c r="C20" s="9">
+        <f>Matches!$A20</f>
+        <v>3</v>
+      </c>
+      <c r="D20" t="str">
+        <f>Matches!$B20</f>
+        <v>Team 5</v>
+      </c>
+      <c r="E20">
+        <f>Matches!$C20</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <f>Matches!$D20</f>
+        <v>1</v>
+      </c>
+      <c r="H20" t="str">
+        <f>Matches!$E20</f>
+        <v>Team 14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <f>Matches!I21</f>
+        <v>0.5</v>
+      </c>
+      <c r="B21" s="10" t="str">
+        <f>Matches!H21</f>
+        <v>Shrawan  30</v>
+      </c>
+      <c r="C21" s="9">
+        <f>Matches!$A21</f>
+        <v>3</v>
+      </c>
+      <c r="D21" t="str">
+        <f>Matches!$B21</f>
+        <v>Team 6</v>
+      </c>
+      <c r="E21">
+        <f>Matches!$C21</f>
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <f>Matches!$D21</f>
+        <v>2</v>
+      </c>
+      <c r="H21" t="str">
+        <f>Matches!$E21</f>
+        <v>Team 8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <f>Matches!I22</f>
+        <v>0.625</v>
+      </c>
+      <c r="B22" s="10" t="str">
+        <f>Matches!H22</f>
+        <v>Shrawan  31</v>
+      </c>
+      <c r="C22" s="9">
+        <f>Matches!$A22</f>
+        <v>3</v>
+      </c>
+      <c r="D22" t="str">
+        <f>Matches!$B22</f>
+        <v>Team 7</v>
+      </c>
+      <c r="E22">
+        <f>Matches!$C22</f>
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <f>Matches!$D22</f>
+        <v>2</v>
+      </c>
+      <c r="H22" t="str">
+        <f>Matches!$E22</f>
+        <v>Team 9</v>
       </c>
     </row>
   </sheetData>
